--- a/Wyniki.xlsx
+++ b/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Semestr IV\MiNSI\ProjektMiNSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D512B457-927E-4B39-89F7-17BFB841A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7FA9B0-A628-4AA6-8BA3-A6106E079E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4366873C-9A55-45AA-BD04-BDAF96D62161}"/>
   </bookViews>
